--- a/public/uploads/${ID_SERVICIO} Orden Upgrade ${ID_SERVICIO_LETRAS} Datos ${CONCENTRADOR_NOD_CODIGO} - ${EXTREMO_NOD_CODIGO} ${ID_SERVICIO}.xlsx
+++ b/public/uploads/${ID_SERVICIO} Orden Upgrade ${ID_SERVICIO_LETRAS} Datos ${CONCENTRADOR_NOD_CODIGO} - ${EXTREMO_NOD_CODIGO} ${ID_SERVICIO}.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve"> ${CAPACIDAD_SOLICITADA} MB</t>
   </si>
   <si>
-    <t xml:space="preserve">${CONCENTRADOR_UBI_DIRECCION} ${CONCENTRADOR_LOGIN}</t>
+    <t xml:space="preserve">${CONCENTRADOR_UBI_DIRECCION}</t>
   </si>
   <si>
     <t xml:space="preserve">${CON_NOMBRES} ${CON_APELLIDOS} </t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">${EXTREMO_CIU_NOMBRE}</t>
   </si>
   <si>
-    <t xml:space="preserve">${EXTREMO_UBI_DIRECCION} ${EXTREMO_LOGIN}</t>
+    <t xml:space="preserve">${EXTREMO_UBI_DIRECCION}</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,20 +216,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -256,7 +248,7 @@
   <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,47 +301,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="true" ht="46.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" customFormat="false" ht="46.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="true" ht="57.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" customFormat="false" ht="57.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
